--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/42/word_level_predictions_42.xlsx
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G135" s="2" t="b">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10977,289 +10977,289 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/42/word_level_predictions_42.xlsx
@@ -7129,7 +7129,7 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G129" s="2" t="b">
@@ -7153,7 +7153,7 @@
       </c>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G131" s="2" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G135" s="2" t="b">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10977,289 +10977,289 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
